--- a/sdi1920-entrega1-211-ext.xlsx
+++ b/sdi1920-entrega1-211-ext.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive\Universidad de Oviedo\ENRIQUE ANTONIO DE LA CAL MARIN - SDI\1920\prácticas_propuestas\practica1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CMG\git\sdi1920-entrega1-211-ext\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="171" documentId="11_6F87C70C0EEBBB682A1A7E76B668D25BBE68B5E0" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{AD5FC9DB-0280-4746-A65A-332549A40765}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15BADAE1-13F0-40B2-91E0-BD29CF0B41AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38510" yWindow="-110" windowWidth="38620" windowHeight="21220" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pruebas" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -1211,19 +1213,7 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1233,6 +1223,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1262,21 +1265,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1559,112 +1561,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I93" sqref="I93"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="39.83203125" customWidth="1"/>
-    <col min="9" max="9" width="131.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="39.875" customWidth="1"/>
+    <col min="9" max="9" width="131.125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A3" s="44" t="s">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="25"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-    </row>
-    <row r="4" spans="1:8" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="45">
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="27">
         <f>G31</f>
         <v>11</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-    </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.5">
-      <c r="A5" s="44" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+    </row>
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-    </row>
-    <row r="6" spans="1:8" ht="26.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="45">
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" ht="26.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="27">
         <f>G44</f>
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-    </row>
-    <row r="7" spans="1:8" ht="26" x14ac:dyDescent="0.6">
-      <c r="A7" s="43" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+    </row>
+    <row r="7" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A7" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-    </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.75">
-      <c r="A8" s="28">
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+    </row>
+    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="30">
         <f>A4-A6</f>
         <v>10</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A11" s="29" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
-    </row>
-    <row r="12" spans="1:8" ht="31" x14ac:dyDescent="0.35">
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>5</v>
       </c>
@@ -1688,7 +1690,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -1716,7 +1718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
@@ -1744,7 +1746,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -1772,7 +1774,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>5</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>6</v>
       </c>
@@ -1856,7 +1858,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>7</v>
       </c>
@@ -1884,7 +1886,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>8</v>
       </c>
@@ -1912,7 +1914,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>9</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>10</v>
       </c>
@@ -1968,7 +1970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>11</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="18">
         <v>12</v>
       </c>
@@ -2027,7 +2029,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>13</v>
       </c>
@@ -2055,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -2083,7 +2085,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -2111,7 +2113,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>16</v>
       </c>
@@ -2139,7 +2141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>18</v>
       </c>
@@ -2195,7 +2197,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="3">
@@ -2215,145 +2217,145 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="31.5" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="A32" s="32" t="s">
+    <row r="32" spans="1:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="34"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="33"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
         <v>1</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C34" s="22"/>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="22"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
       <c r="G34" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
         <v>2</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C35" s="22"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="40"/>
+      <c r="F35" s="40"/>
       <c r="G35" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
         <v>3</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
-      <c r="E36" s="22"/>
-      <c r="F36" s="22"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
       <c r="G36" s="7">
         <v>0.25</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="6">
         <v>4</v>
       </c>
-      <c r="B37" s="40"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
       <c r="G37" s="7"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="6">
         <v>5</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
       <c r="G38" s="7"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="6">
         <v>6</v>
       </c>
-      <c r="B39" s="40"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="22"/>
-      <c r="E39" s="22"/>
-      <c r="F39" s="22"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="40"/>
+      <c r="F39" s="40"/>
       <c r="G39" s="7"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="6">
         <v>7</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="22"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
       <c r="G40" s="7"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="6">
         <v>8</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="22"/>
-      <c r="E41" s="22"/>
-      <c r="F41" s="22"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="40"/>
+      <c r="F41" s="40"/>
       <c r="G41" s="7"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="6">
         <v>9</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
       <c r="G42" s="7"/>
     </row>
-    <row r="43" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>10</v>
       </c>
@@ -2364,7 +2366,7 @@
       <c r="F43" s="42"/>
       <c r="G43" s="9"/>
     </row>
-    <row r="44" spans="1:9" ht="26" x14ac:dyDescent="0.6">
+    <row r="44" spans="1:9" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A44" s="12"/>
       <c r="B44" s="12"/>
       <c r="C44" s="12"/>
@@ -2381,7 +2383,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2390,7 +2392,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2399,18 +2401,18 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:9" ht="31" x14ac:dyDescent="0.7">
-      <c r="A47" s="35" t="s">
+    <row r="47" spans="1:9" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="A47" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="37"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="36"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>41</v>
       </c>
@@ -2423,16 +2425,16 @@
       <c r="D48" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="26" t="s">
+      <c r="E48" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F48" s="27"/>
-      <c r="G48" s="27"/>
+      <c r="F48" s="29"/>
+      <c r="G48" s="29"/>
       <c r="I48" s="21" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -2445,14 +2447,14 @@
       <c r="D49" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
       <c r="I49" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
@@ -2465,14 +2467,14 @@
       <c r="D50" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="23"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="43"/>
+      <c r="G50" s="43"/>
       <c r="I50" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>3</v>
       </c>
@@ -2485,14 +2487,14 @@
       <c r="D51" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E51" s="22"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="23"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="43"/>
+      <c r="G51" s="43"/>
       <c r="I51" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>4</v>
       </c>
@@ -2505,14 +2507,14 @@
       <c r="D52" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="22"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="23"/>
+      <c r="E52" s="40"/>
+      <c r="F52" s="43"/>
+      <c r="G52" s="43"/>
       <c r="I52" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>5</v>
       </c>
@@ -2525,14 +2527,14 @@
       <c r="D53" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E53" s="22"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
+      <c r="E53" s="40"/>
+      <c r="F53" s="43"/>
+      <c r="G53" s="43"/>
       <c r="I53" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>6</v>
       </c>
@@ -2545,14 +2547,14 @@
       <c r="D54" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E54" s="22"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
+      <c r="E54" s="40"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
       <c r="I54" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>7</v>
       </c>
@@ -2565,14 +2567,14 @@
       <c r="D55" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E55" s="22"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="43"/>
+      <c r="G55" s="43"/>
       <c r="I55" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>8</v>
       </c>
@@ -2585,14 +2587,14 @@
       <c r="D56" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
+      <c r="E56" s="40"/>
+      <c r="F56" s="43"/>
+      <c r="G56" s="43"/>
       <c r="I56" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>9</v>
       </c>
@@ -2605,14 +2607,14 @@
       <c r="D57" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="23"/>
-      <c r="G57" s="23"/>
+      <c r="E57" s="40"/>
+      <c r="F57" s="43"/>
+      <c r="G57" s="43"/>
       <c r="I57" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>10</v>
       </c>
@@ -2625,14 +2627,14 @@
       <c r="D58" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="22"/>
-      <c r="F58" s="23"/>
-      <c r="G58" s="23"/>
+      <c r="E58" s="40"/>
+      <c r="F58" s="43"/>
+      <c r="G58" s="43"/>
       <c r="I58" s="20" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>11</v>
       </c>
@@ -2645,14 +2647,14 @@
       <c r="D59" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="43"/>
+      <c r="G59" s="43"/>
       <c r="I59" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>12</v>
       </c>
@@ -2665,14 +2667,14 @@
       <c r="D60" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E60" s="22"/>
-      <c r="F60" s="23"/>
-      <c r="G60" s="23"/>
+      <c r="E60" s="40"/>
+      <c r="F60" s="43"/>
+      <c r="G60" s="43"/>
       <c r="I60" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>13</v>
       </c>
@@ -2685,14 +2687,14 @@
       <c r="D61" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
+      <c r="E61" s="40"/>
+      <c r="F61" s="43"/>
+      <c r="G61" s="43"/>
       <c r="I61" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>14</v>
       </c>
@@ -2705,14 +2707,14 @@
       <c r="D62" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E62" s="22"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="23"/>
+      <c r="E62" s="40"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
       <c r="I62" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>15</v>
       </c>
@@ -2725,14 +2727,14 @@
       <c r="D63" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E63" s="22"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
+      <c r="E63" s="40"/>
+      <c r="F63" s="43"/>
+      <c r="G63" s="43"/>
       <c r="I63" s="20" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>16</v>
       </c>
@@ -2745,14 +2747,14 @@
       <c r="D64" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="23"/>
+      <c r="E64" s="40"/>
+      <c r="F64" s="43"/>
+      <c r="G64" s="43"/>
       <c r="I64" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>17</v>
       </c>
@@ -2765,14 +2767,14 @@
       <c r="D65" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E65" s="22"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
+      <c r="E65" s="40"/>
+      <c r="F65" s="43"/>
+      <c r="G65" s="43"/>
       <c r="I65" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>18</v>
       </c>
@@ -2785,14 +2787,14 @@
       <c r="D66" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E66" s="22"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="23"/>
+      <c r="E66" s="40"/>
+      <c r="F66" s="43"/>
+      <c r="G66" s="43"/>
       <c r="I66" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>19</v>
       </c>
@@ -2805,14 +2807,14 @@
       <c r="D67" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E67" s="22"/>
-      <c r="F67" s="23"/>
-      <c r="G67" s="23"/>
+      <c r="E67" s="40"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
       <c r="I67" s="20" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>20</v>
       </c>
@@ -2825,14 +2827,14 @@
       <c r="D68" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E68" s="22"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
+      <c r="E68" s="40"/>
+      <c r="F68" s="43"/>
+      <c r="G68" s="43"/>
       <c r="I68" s="20" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>21</v>
       </c>
@@ -2845,14 +2847,14 @@
       <c r="D69" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="43"/>
+      <c r="G69" s="43"/>
       <c r="I69" s="20" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>22</v>
       </c>
@@ -2865,14 +2867,14 @@
       <c r="D70" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E70" s="22"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="43"/>
+      <c r="G70" s="43"/>
       <c r="I70" s="20" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>23</v>
       </c>
@@ -2885,14 +2887,14 @@
       <c r="D71" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
+      <c r="E71" s="40"/>
+      <c r="F71" s="43"/>
+      <c r="G71" s="43"/>
       <c r="I71" s="20" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>42</v>
       </c>
@@ -2905,11 +2907,11 @@
       <c r="D72" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E72" s="24"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-    </row>
-    <row r="73" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+      <c r="E72" s="44"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="45"/>
+    </row>
+    <row r="73" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>24</v>
       </c>
@@ -2922,14 +2924,14 @@
       <c r="D73" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E73" s="22"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="43"/>
+      <c r="G73" s="43"/>
       <c r="I73" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>25</v>
       </c>
@@ -2942,14 +2944,14 @@
       <c r="D74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E74" s="22"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="43"/>
+      <c r="G74" s="43"/>
       <c r="I74" s="20" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>26</v>
       </c>
@@ -2962,14 +2964,14 @@
       <c r="D75" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E75" s="22"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="43"/>
+      <c r="G75" s="43"/>
       <c r="I75" s="20" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>27</v>
       </c>
@@ -2982,14 +2984,14 @@
       <c r="D76" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E76" s="22"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="43"/>
+      <c r="G76" s="43"/>
       <c r="I76" s="20" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>28</v>
       </c>
@@ -3002,14 +3004,14 @@
       <c r="D77" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E77" s="22"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="43"/>
+      <c r="G77" s="43"/>
       <c r="I77" s="20" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>29</v>
       </c>
@@ -3022,14 +3024,14 @@
       <c r="D78" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="43"/>
+      <c r="G78" s="43"/>
       <c r="I78" s="20" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="31" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>30</v>
       </c>
@@ -3042,14 +3044,14 @@
       <c r="D79" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="43"/>
+      <c r="G79" s="43"/>
       <c r="I79" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>31</v>
       </c>
@@ -3062,14 +3064,14 @@
       <c r="D80" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E80" s="22"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="43"/>
+      <c r="G80" s="43"/>
       <c r="I80" s="20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>32</v>
       </c>
@@ -3082,14 +3084,14 @@
       <c r="D81" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E81" s="22"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="43"/>
+      <c r="G81" s="43"/>
       <c r="I81" s="20" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>33</v>
       </c>
@@ -3102,14 +3104,14 @@
       <c r="D82" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E82" s="22"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="23"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="43"/>
+      <c r="G82" s="43"/>
       <c r="I82" s="20" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>34</v>
       </c>
@@ -3122,14 +3124,14 @@
       <c r="D83" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E83" s="22"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="23"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="43"/>
+      <c r="G83" s="43"/>
       <c r="I83" s="20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>35</v>
       </c>
@@ -3138,13 +3140,13 @@
         <v>26</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="23"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E84" s="40"/>
+      <c r="F84" s="43"/>
+      <c r="G84" s="43"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>36</v>
       </c>
@@ -3153,13 +3155,13 @@
         <v>26</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="23"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E85" s="40"/>
+      <c r="F85" s="43"/>
+      <c r="G85" s="43"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>37</v>
       </c>
@@ -3168,13 +3170,13 @@
         <v>26</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="23"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E86" s="40"/>
+      <c r="F86" s="43"/>
+      <c r="G86" s="43"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>38</v>
       </c>
@@ -3183,13 +3185,13 @@
         <v>26</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="23"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E87" s="40"/>
+      <c r="F87" s="43"/>
+      <c r="G87" s="43"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>39</v>
       </c>
@@ -3198,13 +3200,13 @@
         <v>26</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="22"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="23"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E88" s="40"/>
+      <c r="F88" s="43"/>
+      <c r="G88" s="43"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>40</v>
       </c>
@@ -3213,16 +3215,16 @@
         <v>26</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E89" s="22"/>
-      <c r="F89" s="23"/>
-      <c r="G89" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="E89" s="40"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
       <c r="I89" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41</v>
       </c>
@@ -3231,13 +3233,13 @@
         <v>26</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E90" s="22"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="23"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E90" s="40"/>
+      <c r="F90" s="43"/>
+      <c r="G90" s="43"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>42</v>
       </c>
@@ -3246,13 +3248,13 @@
         <v>26</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="22"/>
-      <c r="F91" s="23"/>
-      <c r="G91" s="23"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E91" s="40"/>
+      <c r="F91" s="43"/>
+      <c r="G91" s="43"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43</v>
       </c>
@@ -3261,13 +3263,13 @@
         <v>26</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="22"/>
-      <c r="F92" s="23"/>
-      <c r="G92" s="23"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E92" s="40"/>
+      <c r="F92" s="43"/>
+      <c r="G92" s="43"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>44</v>
       </c>
@@ -3276,13 +3278,13 @@
         <v>26</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="22"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="23"/>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E93" s="40"/>
+      <c r="F93" s="43"/>
+      <c r="G93" s="43"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>45</v>
       </c>
@@ -3291,13 +3293,13 @@
         <v>26</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E94" s="22"/>
-      <c r="F94" s="23"/>
-      <c r="G94" s="23"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E94" s="40"/>
+      <c r="F94" s="43"/>
+      <c r="G94" s="43"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>46</v>
       </c>
@@ -3306,13 +3308,13 @@
         <v>26</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E95" s="22"/>
-      <c r="F95" s="23"/>
-      <c r="G95" s="23"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="E95" s="40"/>
+      <c r="F95" s="43"/>
+      <c r="G95" s="43"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>47</v>
       </c>
@@ -3321,20 +3323,62 @@
         <v>26</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E96" s="22"/>
-      <c r="F96" s="23"/>
-      <c r="G96" s="23"/>
+        <v>24</v>
+      </c>
+      <c r="E96" s="40"/>
+      <c r="F96" s="43"/>
+      <c r="G96" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="E96:G96"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="E86:G86"/>
+    <mergeCell ref="E87:G87"/>
+    <mergeCell ref="E88:G88"/>
+    <mergeCell ref="E89:G89"/>
+    <mergeCell ref="E90:G90"/>
+    <mergeCell ref="E91:G91"/>
+    <mergeCell ref="E92:G92"/>
+    <mergeCell ref="E93:G93"/>
+    <mergeCell ref="E94:G94"/>
+    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="E84:G84"/>
+    <mergeCell ref="E73:G73"/>
+    <mergeCell ref="E74:G74"/>
+    <mergeCell ref="E75:G75"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="E77:G77"/>
+    <mergeCell ref="E78:G78"/>
+    <mergeCell ref="E79:G79"/>
+    <mergeCell ref="E80:G80"/>
+    <mergeCell ref="E81:G81"/>
+    <mergeCell ref="E82:G82"/>
+    <mergeCell ref="E83:G83"/>
+    <mergeCell ref="E72:G72"/>
+    <mergeCell ref="E61:G61"/>
+    <mergeCell ref="E62:G62"/>
+    <mergeCell ref="E63:G63"/>
+    <mergeCell ref="E64:G64"/>
+    <mergeCell ref="E65:G65"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="E67:G67"/>
+    <mergeCell ref="E68:G68"/>
+    <mergeCell ref="E69:G69"/>
+    <mergeCell ref="E70:G70"/>
+    <mergeCell ref="E71:G71"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="E49:G49"/>
+    <mergeCell ref="E50:G50"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="E53:G53"/>
+    <mergeCell ref="E54:G54"/>
+    <mergeCell ref="E55:G55"/>
+    <mergeCell ref="E56:G56"/>
+    <mergeCell ref="E57:G57"/>
+    <mergeCell ref="E58:G58"/>
+    <mergeCell ref="E59:G59"/>
     <mergeCell ref="E48:G48"/>
     <mergeCell ref="A8:G8"/>
     <mergeCell ref="A11:G11"/>
@@ -3351,60 +3395,18 @@
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
     <mergeCell ref="B43:F43"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="E50:G50"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="E53:G53"/>
-    <mergeCell ref="E54:G54"/>
-    <mergeCell ref="E55:G55"/>
-    <mergeCell ref="E56:G56"/>
-    <mergeCell ref="E57:G57"/>
-    <mergeCell ref="E58:G58"/>
-    <mergeCell ref="E59:G59"/>
-    <mergeCell ref="E72:G72"/>
-    <mergeCell ref="E61:G61"/>
-    <mergeCell ref="E62:G62"/>
-    <mergeCell ref="E63:G63"/>
-    <mergeCell ref="E64:G64"/>
-    <mergeCell ref="E65:G65"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="E67:G67"/>
-    <mergeCell ref="E68:G68"/>
-    <mergeCell ref="E69:G69"/>
-    <mergeCell ref="E70:G70"/>
-    <mergeCell ref="E71:G71"/>
-    <mergeCell ref="E84:G84"/>
-    <mergeCell ref="E73:G73"/>
-    <mergeCell ref="E74:G74"/>
-    <mergeCell ref="E75:G75"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="E77:G77"/>
-    <mergeCell ref="E78:G78"/>
-    <mergeCell ref="E79:G79"/>
-    <mergeCell ref="E80:G80"/>
-    <mergeCell ref="E81:G81"/>
-    <mergeCell ref="E82:G82"/>
-    <mergeCell ref="E83:G83"/>
-    <mergeCell ref="E96:G96"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="E86:G86"/>
-    <mergeCell ref="E87:G87"/>
-    <mergeCell ref="E88:G88"/>
-    <mergeCell ref="E89:G89"/>
-    <mergeCell ref="E90:G90"/>
-    <mergeCell ref="E91:G91"/>
-    <mergeCell ref="E92:G92"/>
-    <mergeCell ref="E93:G93"/>
-    <mergeCell ref="E94:G94"/>
-    <mergeCell ref="E95:G95"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Instrucciones!$A$7:$A$9</xm:f>
@@ -3431,29 +3433,29 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>29</v>
       </c>
@@ -3461,7 +3463,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>23</v>
       </c>
@@ -3469,7 +3471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -3477,7 +3479,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>26</v>
       </c>
@@ -3485,8 +3487,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>33</v>
       </c>
@@ -3494,7 +3496,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>24</v>
       </c>
@@ -3502,7 +3504,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>35</v>
       </c>
@@ -3510,7 +3512,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>37</v>
       </c>
